--- a/fantasyAnalyticsteams.xlsx
+++ b/fantasyAnalyticsteams.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.03064516129032258</v>
+        <v>0.03275862068965517</v>
       </c>
       <c r="G2" t="n">
-        <v>0.76</v>
+        <v>0.7786885245901639</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2533333333333333</v>
+        <v>0.2794117647058824</v>
       </c>
     </row>
     <row r="3">
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.003380782918149466</v>
+        <v>0.002369077306733167</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3861788617886179</v>
+        <v>0.3740157480314961</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05277777777777778</v>
+        <v>0.05588235294117647</v>
       </c>
     </row>
     <row r="4">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.05588235294117647</v>
+        <v>0.04871794871794872</v>
       </c>
       <c r="G4" t="n">
         <v>0.9047619047619047</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6291390728476821</v>
+        <v>0.5937499999999999</v>
       </c>
     </row>
     <row r="5">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.004523809523809524</v>
+        <v>0.005248618784530387</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6690140845070423</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="H5" t="n">
         <v>0.1357142857142857</v>
@@ -621,13 +621,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.003958333333333333</v>
+        <v>0.006737588652482269</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6012658227848101</v>
+        <v>0.6209150326797386</v>
       </c>
       <c r="H6" t="n">
-        <v>0.143939393939394</v>
+        <v>0.1357142857142857</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3584905660377358</v>
+        <v>0.3454545454545455</v>
       </c>
     </row>
     <row r="8">
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.001233766233766234</v>
+        <v>0.001117647058823529</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2533333333333333</v>
+        <v>0.2375</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02638888888888889</v>
+        <v>0.02794117647058823</v>
       </c>
     </row>
     <row r="9">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.007916666666666666</v>
+        <v>0.007307692307692308</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6129032258064515</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1266666666666666</v>
+        <v>0.1130952380952381</v>
       </c>
     </row>
     <row r="10">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.003941908713692946</v>
+        <v>0.00472636815920398</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4611650485436893</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="H10" t="n">
         <v>0.07307692307692307</v>
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.01172839506172839</v>
+        <v>0.0125</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5974842767295597</v>
+        <v>0.5937499999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1461538461538461</v>
+        <v>0.1532258064516129</v>
       </c>
     </row>
     <row r="12">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.001355206847360913</v>
+        <v>0.001896207584830339</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2375</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02065217391304348</v>
+        <v>0.02317073170731707</v>
       </c>
     </row>
     <row r="13">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.1532258064516129</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3518518518518518</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="14">
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.001079545454545455</v>
+        <v>0.0011875</v>
       </c>
       <c r="G14" t="n">
         <v>0.3166666666666667</v>
@@ -915,7 +915,7 @@
         <v>0.1583333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02065217391304348</v>
+        <v>0.01862745098039216</v>
       </c>
     </row>
     <row r="16">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.1461538461538461</v>
+        <v>0.1217948717948718</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8962264150943395</v>
+        <v>0.8878504672897195</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="17">
@@ -973,13 +973,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.01117647058823529</v>
+        <v>0.011875</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5654761904761905</v>
+        <v>0.5688622754491018</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1266666666666666</v>
+        <v>0.1130952380952381</v>
       </c>
     </row>
     <row r="18">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.005277777777777778</v>
+        <v>0.005588235294117646</v>
       </c>
       <c r="G18" t="n">
         <v>0.475</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07037037037037036</v>
+        <v>0.07307692307692307</v>
       </c>
     </row>
     <row r="19">
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.07916666666666666</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8962264150943395</v>
+        <v>0.8878504672897195</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5864197530864197</v>
+        <v>0.6050955414012739</v>
       </c>
     </row>
     <row r="20">
@@ -1069,13 +1069,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0095</v>
+        <v>0.01172839506172839</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6209150326797386</v>
+        <v>0.6462585034013605</v>
       </c>
       <c r="H20" t="n">
-        <v>0.11875</v>
+        <v>0.1407407407407407</v>
       </c>
     </row>
     <row r="21">
@@ -1101,10 +1101,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.095</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.8962264150943395</v>
       </c>
       <c r="H21" t="n">
         <v>0.6643356643356644</v>
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.1130952380952381</v>
+        <v>0.1117647058823529</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8962264150943395</v>
+        <v>0.8796296296296295</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.08636363636363636</v>
+        <v>0.095</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7037037037037036</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1727272727272727</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="24">
@@ -1200,10 +1200,10 @@
         <v>0.019</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6985294117647058</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1938775510204081</v>
+        <v>0.1862745098039216</v>
       </c>
     </row>
     <row r="25">
@@ -1229,13 +1229,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.006737588652482269</v>
+        <v>0.009405940594059406</v>
       </c>
       <c r="G25" t="n">
         <v>0.6985294117647058</v>
       </c>
       <c r="H25" t="n">
-        <v>0.152</v>
+        <v>0.1583333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/fantasyAnalyticsteams.xlsx
+++ b/fantasyAnalyticsteams.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.03275862068965517</v>
+        <v>0.01172839506172839</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7786885245901639</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2794117647058824</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="3">
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.002369077306733167</v>
+        <v>0.001896207584830339</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3740157480314961</v>
+        <v>0.1461538461538461</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05588235294117647</v>
+        <v>0.01862745098039216</v>
       </c>
     </row>
     <row r="4">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.04871794871794872</v>
+        <v>0.0475</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5937499999999999</v>
+        <v>0.6168831168831168</v>
       </c>
     </row>
     <row r="5">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.005248618784530387</v>
+        <v>0.006785714285714286</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.6884057971014493</v>
       </c>
       <c r="H5" t="n">
         <v>0.1357142857142857</v>
@@ -621,13 +621,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.006737588652482269</v>
+        <v>0.003166666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6209150326797386</v>
+        <v>0.4523809523809523</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1357142857142857</v>
+        <v>0.02317073170731707</v>
       </c>
     </row>
     <row r="7">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.095</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3454545454545455</v>
+        <v>0.3518518518518518</v>
       </c>
     </row>
     <row r="8">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.001117647058823529</v>
+        <v>0.001091954022988506</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2375</v>
+        <v>0.240506329113924</v>
       </c>
       <c r="H8" t="n">
         <v>0.02794117647058823</v>
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.007307692307692308</v>
+        <v>0.008636363636363636</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6209150326797386</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1130952380952381</v>
+        <v>0.1104651162790698</v>
       </c>
     </row>
     <row r="10">
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00472636815920398</v>
+        <v>0.003784860557768924</v>
       </c>
       <c r="G10" t="n">
         <v>0.4318181818181818</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07307692307692307</v>
+        <v>0.0475</v>
       </c>
     </row>
     <row r="11">
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0125</v>
+        <v>0.01172839506172839</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5937499999999999</v>
+        <v>0.5654761904761905</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1532258064516129</v>
+        <v>0.08636363636363636</v>
       </c>
     </row>
     <row r="12">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.001896207584830339</v>
+        <v>0.0004747626186906546</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02317073170731707</v>
+        <v>0.00472636815920398</v>
       </c>
     </row>
     <row r="13">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1484375</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3298611111111111</v>
+        <v>0.3492647058823529</v>
       </c>
     </row>
     <row r="14">
@@ -877,13 +877,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0011875</v>
+        <v>0.001217948717948718</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03653846153846153</v>
+        <v>0.03166666666666666</v>
       </c>
     </row>
     <row r="15">
@@ -909,13 +909,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.00118601747815231</v>
+        <v>0.0011875</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01862745098039216</v>
+        <v>0.01979166666666667</v>
       </c>
     </row>
     <row r="16">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.1217948717948718</v>
+        <v>0.11875</v>
       </c>
       <c r="G16" t="n">
         <v>0.8878504672897195</v>
       </c>
       <c r="H16" t="n">
-        <v>0.625</v>
+        <v>0.6462585034013605</v>
       </c>
     </row>
     <row r="17">
@@ -973,13 +973,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.011875</v>
+        <v>0.006291390728476821</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5688622754491018</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1130952380952381</v>
+        <v>0.02065217391304348</v>
       </c>
     </row>
     <row r="18">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.005588235294117646</v>
+        <v>0.006785714285714286</v>
       </c>
       <c r="G18" t="n">
-        <v>0.475</v>
+        <v>0.4896907216494845</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07307692307692307</v>
+        <v>0.08260869565217391</v>
       </c>
     </row>
     <row r="19">
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.101063829787234</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="G19" t="n">
         <v>0.8878504672897195</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6050955414012739</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="20">
@@ -1069,13 +1069,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.01172839506172839</v>
+        <v>0.003518518518518518</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6462585034013605</v>
+        <v>0.2375</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1407407407407407</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="21">
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.09313725490196079</v>
+        <v>0.095</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8962264150943395</v>
+        <v>0.9047619047619047</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6643356643356644</v>
+        <v>0.6050955414012739</v>
       </c>
     </row>
     <row r="22">
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.1117647058823529</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="G22" t="n">
         <v>0.8796296296296295</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5</v>
+        <v>0.5248618784530387</v>
       </c>
     </row>
     <row r="23">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.095</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="G23" t="n">
         <v>0.7142857142857142</v>
       </c>
       <c r="H23" t="n">
-        <v>0.19</v>
+        <v>0.2111111111111111</v>
       </c>
     </row>
     <row r="24">
@@ -1197,13 +1197,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.019</v>
+        <v>0.01727272727272727</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6690140845070423</v>
+        <v>0.6209150326797386</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1862745098039216</v>
+        <v>0.04130434782608695</v>
       </c>
     </row>
     <row r="25">
@@ -1232,10 +1232,10 @@
         <v>0.009405940594059406</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6985294117647058</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.03064516129032258</v>
       </c>
     </row>
   </sheetData>

--- a/fantasyAnalyticsteams.xlsx
+++ b/fantasyAnalyticsteams.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.01172839506172839</v>
+        <v>0.01357142857142857</v>
       </c>
       <c r="G2" t="n">
         <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.095</v>
+        <v>0.001896207584830339</v>
       </c>
     </row>
     <row r="3">
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.001896207584830339</v>
+        <v>0.001862745098039216</v>
       </c>
       <c r="G3" t="n">
         <v>0.1461538461538461</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01862745098039216</v>
+        <v>0.001896207584830339</v>
       </c>
     </row>
     <row r="4">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0475</v>
+        <v>0.059375</v>
       </c>
       <c r="G4" t="n">
         <v>0.9134615384615384</v>
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.006785714285714286</v>
+        <v>0.003166666666666667</v>
       </c>
       <c r="G5" t="n">
         <v>0.6884057971014493</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1357142857142857</v>
+        <v>0.001896207584830339</v>
       </c>
     </row>
     <row r="6">
@@ -624,10 +624,10 @@
         <v>0.003166666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4523809523809523</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02317073170731707</v>
+        <v>0.004203539823008849</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         <v>0.08636363636363636</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.7786885245901639</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3518518518518518</v>
+        <v>0.11875</v>
       </c>
     </row>
     <row r="8">
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.001091954022988506</v>
+        <v>0.001580698835274542</v>
       </c>
       <c r="G8" t="n">
-        <v>0.240506329113924</v>
+        <v>0.4523809523809523</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02794117647058823</v>
+        <v>0.059375</v>
       </c>
     </row>
     <row r="9">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.008636363636363636</v>
+        <v>0.009405940594059406</v>
       </c>
       <c r="G9" t="n">
         <v>0.6209150326797386</v>
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.003784860557768924</v>
+        <v>0.00475</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4318181818181818</v>
+        <v>0.4523809523809523</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0475</v>
+        <v>0.1055555555555556</v>
       </c>
     </row>
     <row r="11">
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.01172839506172839</v>
+        <v>0.005588235294117646</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5654761904761905</v>
+        <v>0.5491329479768786</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08636363636363636</v>
+        <v>0.001896207584830339</v>
       </c>
     </row>
     <row r="12">
@@ -812,14 +812,10 @@
           <t>https://fantasy.assets.scoutgg.net/uploads/assets/22443.svg</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>0.0004747626186906546</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.1055555555555556</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.00472636815920398</v>
+        <v>0.001896207584830339</v>
       </c>
     </row>
     <row r="13">
@@ -845,13 +841,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.1484375</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="G13" t="n">
         <v>0.8260869565217391</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3492647058823529</v>
+        <v>0.3544776119402985</v>
       </c>
     </row>
     <row r="14">
@@ -877,7 +873,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.001217948717948718</v>
+        <v>0.001896207584830339</v>
       </c>
       <c r="G14" t="n">
         <v>0.3114754098360656</v>
@@ -909,13 +905,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.0011875</v>
+        <v>0.0006329113924050633</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1637931034482759</v>
+        <v>0.05588235294117647</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01979166666666667</v>
+        <v>0.002369077306733167</v>
       </c>
     </row>
     <row r="16">
@@ -941,13 +937,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.11875</v>
+        <v>0.095</v>
       </c>
       <c r="G16" t="n">
         <v>0.8878504672897195</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6462585034013605</v>
+        <v>0.5428571428571428</v>
       </c>
     </row>
     <row r="17">
@@ -973,13 +969,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.006291390728476821</v>
+        <v>0.0006329113924050633</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4130434782608696</v>
+        <v>0.03275862068965517</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02065217391304348</v>
+        <v>0.001896207584830339</v>
       </c>
     </row>
     <row r="18">
@@ -1005,11 +1001,9 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.006785714285714286</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.4896907216494845</v>
-      </c>
+        <v>0.008636363636363636</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
         <v>0.08260869565217391</v>
       </c>
@@ -1037,13 +1031,11 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.09895833333333333</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.8878504672897195</v>
-      </c>
+        <v>0.1130952380952381</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.625</v>
+        <v>0.8482142857142856</v>
       </c>
     </row>
     <row r="20">
@@ -1069,13 +1061,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.003518518518518518</v>
+        <v>0.003392857142857143</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2375</v>
+        <v>0.1357142857142857</v>
       </c>
       <c r="H20" t="n">
-        <v>0.038</v>
+        <v>0.04130434782608695</v>
       </c>
     </row>
     <row r="21">
@@ -1101,13 +1093,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.095</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9047619047619047</v>
+        <v>0.8558558558558558</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6050955414012739</v>
+        <v>0.4973821989528796</v>
       </c>
     </row>
     <row r="22">
@@ -1133,13 +1125,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.1158536585365854</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8796296296296295</v>
+        <v>0.9405940594059405</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5248618784530387</v>
+        <v>0.8878504672897195</v>
       </c>
     </row>
     <row r="23">
@@ -1165,13 +1157,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.09895833333333333</v>
+        <v>0.07916666666666666</v>
       </c>
       <c r="G23" t="n">
         <v>0.7142857142857142</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2111111111111111</v>
+        <v>0.0475</v>
       </c>
     </row>
     <row r="24">
@@ -1197,13 +1189,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.01727272727272727</v>
+        <v>0.007916666666666666</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6209150326797386</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04130434782608695</v>
+        <v>0.00095</v>
       </c>
     </row>
     <row r="25">
@@ -1229,13 +1221,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.009405940594059406</v>
+        <v>0.007307692307692308</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03064516129032258</v>
+        <v>0.003784860557768924</v>
       </c>
     </row>
   </sheetData>

--- a/fantasyAnalyticsteams.xlsx
+++ b/fantasyAnalyticsteams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,109 +493,97 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.01357142857142857</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.001896207584830339</v>
-      </c>
+        <v>0.04318181818181818</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>18706</v>
+        <v>18694</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22704.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22698.svg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22435.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22429.svg</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.001862745098039216</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1461538461538461</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.001896207584830339</v>
-      </c>
+        <v>0.08962264150943396</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>18694</v>
+        <v>18643</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22698.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22715.svg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22429.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22446.svg</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.059375</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9134615384615384</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6168831168831168</v>
-      </c>
+        <v>0.003392857142857143</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>18643</v>
+        <v>18660</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22715.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22699.svg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22446.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22430.svg</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.003166666666666667</v>
+        <v>0.11875</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6884057971014493</v>
+        <v>0.9223300970873786</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001896207584830339</v>
+        <v>0.4523809523809523</v>
       </c>
     </row>
     <row r="6">
@@ -603,31 +591,31 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>18702</v>
+        <v>18564</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22707.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22710.svg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22438.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22441.svg</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.003166666666666667</v>
+        <v>0.01357142857142857</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4318181818181818</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004203539823008849</v>
+        <v>0.3725490196078431</v>
       </c>
     </row>
     <row r="7">
@@ -635,95 +623,87 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>18660</v>
+        <v>18721</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22699.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22709.svg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22430.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22440.svg</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.08636363636363636</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.7786885245901639</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.11875</v>
-      </c>
+        <v>0.008636363636363636</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>18570</v>
+        <v>18708</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22718.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22714.svg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22449.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22444.svg</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.001580698835274542</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4523809523809523</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.059375</v>
-      </c>
+        <v>0.005900621118012422</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>18564</v>
+        <v>18647</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22710.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22708.svg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22441.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22439.svg</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.009405940594059406</v>
+        <v>0.1696428571428572</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6209150326797386</v>
+        <v>0.9313725490196078</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1104651162790698</v>
+        <v>0.4357798165137614</v>
       </c>
     </row>
     <row r="10">
@@ -731,123 +711,115 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>18721</v>
+        <v>18645</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22709.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22700.svg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22440.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22431.svg</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00475</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.4523809523809523</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.1055555555555556</v>
-      </c>
+        <v>0.11875</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>18708</v>
+        <v>18718</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22714.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22705.svg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22444.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22436.svg</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.005588235294117646</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.5491329479768786</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.001896207584830339</v>
-      </c>
+        <v>0.007539682539682539</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>18689</v>
+        <v>18658</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22712.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22696.svg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22443.svg</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22427.svg</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1130952380952381</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>0.001896207584830339</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>18647</v>
+        <v>18710</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22708.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22702.svg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22439.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22433.svg</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.1532258064516129</v>
+        <v>0.1032608695652174</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3544776119402985</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="14">
@@ -855,63 +827,59 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>18648</v>
+        <v>18743</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22716.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22697.svg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22447.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22428.svg</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.001896207584830339</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.3114754098360656</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.03166666666666666</v>
-      </c>
+        <v>0.08260869565217391</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>18732</v>
+        <v>18701</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22713.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22701.svg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22445.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22432.svg</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.0006329113924050633</v>
+        <v>0.06551724137931034</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05588235294117647</v>
+        <v>0.8962264150943395</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002369077306733167</v>
+        <v>0.05277777777777778</v>
       </c>
     </row>
     <row r="16">
@@ -919,316 +887,56 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>18645</v>
+        <v>18588</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22700.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22695.svg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22431.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22426.svg</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.8878504672897195</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.5428571428571428</v>
-      </c>
+        <v>0.011875</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>18716</v>
+        <v>18624</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22706.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22703.svg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22437.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22434.svg</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0006329113924050633</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.03275862068965517</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.001896207584830339</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" t="n">
-        <v>18718</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22705.svg</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22436.svg</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.008636363636363636</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>0.08260869565217391</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18658</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22696.svg</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22427.svg</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.1130952380952381</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>0.8482142857142856</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18699</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22711.svg</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22442.svg</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0.003392857142857143</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.1357142857142857</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.04130434782608695</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B21" t="n">
-        <v>18710</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22702.svg</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22433.svg</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0.08636363636363636</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.8558558558558558</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.4973821989528796</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B22" t="n">
-        <v>18743</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22697.svg</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22428.svg</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>0.1104651162790698</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.9405940594059405</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.8878504672897195</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B23" t="n">
-        <v>18701</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22701.svg</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22432.svg</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>0.07916666666666666</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.7142857142857142</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.0475</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B24" t="n">
-        <v>18588</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22695.svg</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22426.svg</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>0.007916666666666666</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.4318181818181818</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.00095</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B25" t="n">
-        <v>18624</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22703.svg</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22434.svg</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>0.007307692307692308</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.6985294117647058</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.003784860557768924</v>
-      </c>
+        <v>0.006291390728476821</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/fantasyAnalyticsteams.xlsx
+++ b/fantasyAnalyticsteams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,484 +459,110 @@
           <t>oddsToWin</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>oddsToQualifyGroup</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>oddsToWinGroup</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18583</v>
+        <v>18645</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>England</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22717.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22700.svg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22448.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22431.svg</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.04318181818181818</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+        <v>0.3571428571428571</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>18694</v>
+        <v>18658</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22698.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22696.svg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22429.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22427.svg</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.08962264150943396</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>0.2794117647058824</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>18643</v>
+        <v>18583</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22715.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22717.svg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22446.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22448.svg</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.003392857142857143</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+        <v>0.08260869565217391</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>18660</v>
+        <v>18710</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22699.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22702.svg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22430.svg</t>
+          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22433.svg</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.11875</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9223300970873786</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.4523809523809523</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>18564</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22710.svg</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22441.svg</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0.01357142857142857</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.6985294117647058</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.3725490196078431</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>18721</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Wales</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22709.svg</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22440.svg</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0.008636363636363636</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>18708</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22714.svg</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22444.svg</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0.005900621118012422</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>18647</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22708.svg</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22439.svg</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1696428571428572</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9313725490196078</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4357798165137614</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>18645</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22700.svg</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22431.svg</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0.11875</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>18718</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22705.svg</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22436.svg</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0.007539682539682539</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>18658</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22696.svg</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22427.svg</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0.1130952380952381</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>18710</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22702.svg</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22433.svg</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0.1032608695652174</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>18743</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22697.svg</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22428.svg</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0.08260869565217391</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>18701</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22701.svg</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22432.svg</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0.06551724137931034</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.8962264150943395</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.05277777777777778</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>18588</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22695.svg</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22426.svg</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.011875</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>18624</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22703.svg</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://fantasy.assets.scoutgg.net/uploads/assets/22434.svg</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.006291390728476821</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+        <v>0.2317073170731707</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
